--- a/FLow calcualtion Jhimruk_andhi/average of all year.xlsx
+++ b/FLow calcualtion Jhimruk_andhi/average of all year.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Shrawan</t>
   </si>
@@ -60,6 +60,96 @@
   </si>
   <si>
     <t>Ashadh</t>
+  </si>
+  <si>
+    <t>Fiscal Year</t>
+  </si>
+  <si>
+    <t>2051/2052</t>
+  </si>
+  <si>
+    <t>2052/2053</t>
+  </si>
+  <si>
+    <t>2053/2054</t>
+  </si>
+  <si>
+    <t>2054/2055</t>
+  </si>
+  <si>
+    <t>2055/2056</t>
+  </si>
+  <si>
+    <t>2056/2057</t>
+  </si>
+  <si>
+    <t>2057/2058</t>
+  </si>
+  <si>
+    <t>2058/2059</t>
+  </si>
+  <si>
+    <t>2059/2060</t>
+  </si>
+  <si>
+    <t>2060/2061</t>
+  </si>
+  <si>
+    <t>2061/2062</t>
+  </si>
+  <si>
+    <t>2062/2063</t>
+  </si>
+  <si>
+    <t>2063/2064</t>
+  </si>
+  <si>
+    <t>2064/2065</t>
+  </si>
+  <si>
+    <t>2065/2066</t>
+  </si>
+  <si>
+    <t>2066/2067</t>
+  </si>
+  <si>
+    <t>2067/2068</t>
+  </si>
+  <si>
+    <t>2068/2069</t>
+  </si>
+  <si>
+    <t>2069/2070</t>
+  </si>
+  <si>
+    <t>2070/2071</t>
+  </si>
+  <si>
+    <t>2071/2072</t>
+  </si>
+  <si>
+    <t>2072/2073</t>
+  </si>
+  <si>
+    <t>2073/2074</t>
+  </si>
+  <si>
+    <t>2074/2075</t>
+  </si>
+  <si>
+    <t>2075/2076</t>
+  </si>
+  <si>
+    <t>2076/2077</t>
+  </si>
+  <si>
+    <t>2077/2078</t>
+  </si>
+  <si>
+    <t>2078/2079</t>
+  </si>
+  <si>
+    <t>2079/2080</t>
   </si>
 </sst>
 </file>
@@ -69,13 +159,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,13 +190,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,1129 +494,1225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
         <v>53.261935483870971</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="3">
         <v>30.028064516129039</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="3">
         <v>10.833033333333336</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="3">
         <v>7.5075862068965495</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="3">
         <v>6.1473333333333331</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="3">
         <v>4.6734482758620688</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="3">
         <v>4.3733333333333331</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="3">
         <v>2.8119999999999989</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="3">
         <v>2.2465833333333332</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
         <v>43.020937499999995</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
         <v>65.76906249999999</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="3">
         <v>69.926451612903207</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="3">
         <v>26.752903225806456</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="3">
         <v>10.511666666666667</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="3">
         <v>8.2096551724137914</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="3">
         <v>6.1170000000000009</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="3">
         <v>6.6275862068965523</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="3">
         <v>6.1359999999999992</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="3">
         <v>3.847</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="3">
         <v>2.0877419354838711</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="3">
         <v>2.8166562500000003</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="3">
         <v>28.786967741935481</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
         <v>97.308125000000032</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="3">
         <v>92.848387096774189</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="3">
         <v>50.073666666666668</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="3">
         <v>20.305</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="3">
         <v>9.4963333333333324</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="3">
         <v>6.9452333333333343</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="3">
         <v>6.3124137931034481</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="3">
         <v>4.3993333333333338</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="3">
         <v>4.4883333333333333</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="3">
         <v>3.9435483870967749</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="3">
         <v>3.1909375000000004</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="3">
         <v>46.505806451612898</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
         <v>125.20281250000002</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="3">
         <v>70.750967741935469</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="3">
         <v>34.590666666666678</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="3">
         <v>14.878333333333334</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="3">
         <v>11.494000000000002</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="3">
         <v>8.0400000000000027</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="3">
         <v>5.5073333333333334</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="3">
         <v>5.0917241379310347</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="3">
         <v>5.0993333333333331</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="3">
         <v>4.6358064516129041</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="3">
         <v>3.9825806451612897</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="3">
         <v>68.406562500000021</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
         <v>96.429999999999978</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="3">
         <v>123.96838709677422</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="3">
         <v>45.182903225806442</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="3">
         <v>18.232000000000003</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="3">
         <v>11.387931034482754</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="3">
         <v>7.0836666666666668</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="3">
         <v>5.7299999999999986</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="3">
         <v>4.5113333333333339</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="3">
         <v>3.7753333333333332</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="3">
         <v>2.3164516129032258</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="3">
         <v>9.9458064516129046</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="3">
         <v>38.919687499999995</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
         <v>60.746129032258061</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="3">
         <v>110.90968750000002</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="3">
         <v>73.757866666666658</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="3">
         <v>20.939166666666669</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="3">
         <v>10.40344827586207</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="3">
         <v>7.5724333333333336</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="3">
         <v>6.4764827586206888</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="3">
         <v>5.2913333333333323</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="3">
         <v>3.9739999999999993</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="3">
         <v>5.4279999999999999</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="3">
         <v>25.826562499999998</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="3">
         <v>57.251935483870973</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
         <v>90.971875000000011</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="3">
         <v>117.17419354838711</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="3">
         <v>64.708000000000013</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="3">
         <v>17.108666666666661</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="3">
         <v>10.143666666666665</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="3">
         <v>7.3424137931034474</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="3">
         <v>6.0462068965517251</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="3">
         <v>5.3056666666666672</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="3">
         <v>4.1206451612903221</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="3">
         <v>5.3246666666666673</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="3">
         <v>10.667187499999999</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="3">
         <v>39.447741935483869</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
         <v>81.160656250000017</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="3">
         <v>113.73548387096771</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="3">
         <v>35.916666666666664</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="3">
         <v>15.040899999999997</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="3">
         <v>8.6676666666666655</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="3">
         <v>6.7065517241379311</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="3">
         <v>6.6029999999999989</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="3">
         <v>5.4186206896551719</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="3">
         <v>6.7451612903225797</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="3">
         <v>6.0913870967741923</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="3">
         <v>5.8921612903225808</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="3">
         <v>23.502031249999995</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
         <v>55.829129032258081</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="3">
         <v>65.01783870967742</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="3">
         <v>30.403870967741931</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="3">
         <v>13.655666666666662</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="3">
         <v>7.0951724137931071</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="3">
         <v>4.5953333333333326</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="3">
         <v>4.4162068965517243</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="3">
         <v>5.4010000000000007</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
         <v>45.838774193548382</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3">
         <v>94.426562499999974</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="3">
         <v>92.61</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="3">
         <v>55.655666666666654</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="3">
         <v>15.020666666666669</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="3">
         <v>8.6782758620689648</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="3">
         <v>7.2203333333333335</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="3">
         <v>6.559310344827586</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="3">
         <v>4.4633333333333329</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="3">
         <v>4.214999999999999</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="3">
         <v>2.9296774193548392</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="3">
         <v>4.4899999999999993</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="3">
         <v>24.204838709677421</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3">
         <v>50.565531250000006</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="3">
         <v>34.16538709677419</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="3">
         <v>31.649466666666676</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="3">
         <v>14.043366666666666</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="3">
         <v>8.0670000000000002</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="3">
         <v>6.3729655172413802</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="3">
         <v>6.1764137931034488</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="3">
         <v>4.6343333333333332</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="3">
         <v>3.6935483870967736</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="3">
         <v>2.4313225806451615</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="3">
         <v>1.8282631578947366</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="3">
         <v>19.973451612903222</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
         <v>61.740312500000002</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="3">
         <v>83.78400000000002</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="3">
         <v>33.343829032258064</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="3">
         <v>17.109793103448276</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="3">
         <v>9.2541666666666647</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="3">
         <v>6.3752758620689649</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="3">
         <v>4.9698666666666664</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="3">
         <v>4.1592413793103447</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="3">
         <v>3.7062580645161294</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="3">
         <v>4.6788387096774189</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="3">
         <v>11.041129032258064</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="3">
         <v>33.470865625000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3">
         <v>53.568516129032275</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="3">
         <v>40.965032258064511</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="3">
         <v>26.485516129032259</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="3">
         <v>10.404533333333335</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="3">
         <v>7.275206896551726</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="3">
         <v>5.7042333333333346</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="3">
         <v>4.6288965517241376</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="3">
         <v>5.7288666666666677</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="3">
         <v>3.8978666666666664</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="3">
         <v>3.8088709677419366</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="3">
         <v>4.0191290322580651</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="3">
         <v>19.369968750000002</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
         <v>68.523187500000006</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="3">
         <v>90.875096774193565</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="3">
         <v>40.892366666666661</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="3">
         <v>17.223933333333335</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="3">
         <v>9.44551724137931</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="3">
         <v>6.8260333333333358</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="3">
         <v>5.5862068965517251</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="3">
         <v>4.4305333333333321</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="3">
         <v>3.9701666666666662</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="3">
         <v>2.7655806451612901</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="3">
         <v>6.7753437499999993</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="3">
         <v>41.596790322580645</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3">
         <v>67.090470052083347</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="3">
         <v>66.957666666666668</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="3">
         <v>57.386333333333347</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="3">
         <v>16.363866666666663</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="3">
         <v>8.3907666666666643</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="3">
         <v>6.3244827586206904</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="3">
         <v>4.7070689655172435</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="3">
         <v>3.7731724137931022</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="3">
         <v>3.1561290322580637</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="3">
         <v>1.6367096774193548</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="3">
         <v>4.9864838709677404</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="3">
         <v>14.91935483870968</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3">
         <v>71.930312499999971</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="3">
         <v>68.337290322580628</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="3">
         <v>40.595161290322579</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="3">
         <v>18.739655172413791</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="3">
         <v>8.8246666666666691</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="3">
         <v>6.7343333333333337</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="3">
         <v>5.2389655172413798</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="3">
         <v>4.2653448275862074</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="3">
         <v>3.1219354838709688</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="3">
         <v>1.9016129032258058</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="3">
         <v>2.6165806451612905</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="3">
         <v>19.00359375</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3">
         <v>74.613806451612916</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="3">
         <v>74.597451612903228</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="3">
         <v>55.239032258064533</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="3">
         <v>17.745000000000005</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="3">
         <v>9.3204827586206864</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="3">
         <v>6.6146666666666656</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="3">
         <v>5.0431034482758621</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="3">
         <v>4.3849999999999998</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="3">
         <v>3.4662666666666673</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="3">
         <v>2.6076129032258062</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="3">
         <v>5.5824193548387102</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="3">
         <v>36.650281249999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3">
         <v>68.271874999999994</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="3">
         <v>70.300648387096786</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="3">
         <v>50.331800000000001</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="3">
         <v>16.4087</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="3">
         <v>8.6084137931034483</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="3">
         <v>6.8869333333333334</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="3">
         <v>5.7915172413793092</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="3">
         <v>4.1528666666666663</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="3">
         <v>3.6642000000000001</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="3">
         <v>2.0742258064516128</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="3">
         <v>1.5539374999999997</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="3">
         <v>19.604129032258065</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3">
         <v>64.819249999999997</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="3">
         <v>65.475225806451604</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="3">
         <v>39.759233333333341</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="3">
         <v>13.717733333333333</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="3">
         <v>7.6434333333333369</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="3">
         <v>5.7699655172413786</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="3">
         <v>5.6343793103448272</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="3">
         <v>4.84</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="3">
         <v>3.0084193548387095</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="3">
         <v>3.3345161290322585</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="3">
         <v>11.669774193548385</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="3">
         <v>70.99464516129035</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3">
         <v>110.64565624999999</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="3">
         <v>76.755193548387084</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="3">
         <v>30.805838709677424</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="3">
         <v>18.603137931034478</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="3">
         <v>9.7732666666666663</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="3">
         <v>7.133700000000001</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="3">
         <v>6.5141724137931005</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="3">
         <v>5.4528333333333334</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="3">
         <v>3.9568999999999983</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="3">
         <v>2.419451612903226</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="3">
         <v>3.7739032258064515</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="3">
         <v>20.758343750000002</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3">
         <v>73.940290322580637</v>
       </c>
-      <c r="B22" s="1">
+      <c r="C22" s="3">
         <v>59.781000000000006</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="3">
         <v>34.140419354838713</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="3">
         <v>16.520866666666667</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="3">
         <v>9.0616206896551716</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="3">
         <v>8.2641666666666662</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="3">
         <v>6.0609999999999999</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="3">
         <v>5.6435333333333348</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="3">
         <v>5.0915666666666661</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="3">
         <v>4.7670322580645177</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="3">
         <v>2.6033125000000004</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="3">
         <v>18.765677419354837</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3">
         <v>67.385406250000003</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C23" s="3">
         <v>58.640032258064515</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="3">
         <v>35.21423333333334</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="3">
         <v>12.8948</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="3">
         <v>7.8916551724137944</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="3">
         <v>5.9090333333333351</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="3">
         <v>5.2724137931034507</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="3">
         <v>3.9391333333333325</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="3">
         <v>3.2854999999999999</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="3">
         <v>2.5699677419354834</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="3">
         <v>5.4387499999999998</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="3">
         <v>44.828580645161296</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3">
         <v>130.71284374999999</v>
       </c>
-      <c r="B24" s="1">
+      <c r="C24" s="3">
         <v>44.635580645161298</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="3">
         <v>54.539133333333332</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="3">
         <v>22.448299999999993</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="3">
         <v>10.109499999999997</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="3">
         <v>6.9718965517241376</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="3">
         <v>5.7861379310344816</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="3">
         <v>4.8101290322580645</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="3">
         <v>4.1911290322580648</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="3">
         <v>5.0850967741935467</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="3">
         <v>6.3417741935483862</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="3">
         <v>55.599935483870965</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3">
         <v>68.643062500000013</v>
       </c>
-      <c r="B25" s="1">
+      <c r="C25" s="3">
         <v>57.671322580645153</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="3">
         <v>39.636774193548391</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="3">
         <v>13.718199999999998</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="3">
         <v>7.6512068965517228</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="3">
         <v>5.6863666666666663</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="3">
         <v>4.8135862068965514</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="3">
         <v>3.7614999999999998</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="3">
         <v>4.2008333333333328</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="3">
         <v>2.6687096774193542</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="3">
         <v>3.5380000000000003</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="3">
         <v>9.4121249999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3">
         <v>48.653387096774196</v>
       </c>
-      <c r="B26" s="1">
+      <c r="C26" s="3">
         <v>64.625967741935469</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="3">
         <v>23.309967741935488</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="3">
         <v>10.546733333333332</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="3">
         <v>6.6558965517241386</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="3">
         <v>5.3209999999999997</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="3">
         <v>6.12351724137931</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="3">
         <v>5.4975000000000005</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="3">
         <v>4.2669666666666659</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="3">
         <v>2.863967741935483</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="3">
         <v>3.1744062499999992</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="3">
         <v>14.810838709677418</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="3">
         <v>41.2280625</v>
       </c>
-      <c r="B27" s="1">
+      <c r="C27" s="3">
         <v>63.799258064516131</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="3">
         <v>47.028033333333319</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="3">
         <v>15.196533333333337</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="3">
         <v>8.1431666666666658</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="3">
         <v>6.3187931034482752</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="3">
         <v>6.0484137931034478</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="3">
         <v>5.3208666666666655</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="3">
         <v>4.8971</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="3">
         <v>8.2467741935483865</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="3">
         <v>8.8260312499999998</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="3">
         <v>73.217903225806452</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="3">
         <v>83.259031249999992</v>
       </c>
-      <c r="B28" s="1">
+      <c r="C28" s="3">
         <v>81.706580645161324</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="3">
         <v>56.914733333333324</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="3">
         <v>16.99123333333333</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="3">
         <v>8.4158200000000019</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="3">
         <v>6.1162758620689663</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="3">
         <v>4.8081000000000005</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="3">
         <v>3.7779655172413791</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="3">
         <v>3.0910322580645162</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="3">
         <v>5.307483870967741</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="3">
         <v>8.0459999999999994</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="3">
         <v>56.021225806451611</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3">
         <v>73.540187500000002</v>
       </c>
-      <c r="B29" s="1">
+      <c r="C29" s="3">
         <v>104.51203225806452</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="3">
         <v>45.665645161290328</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="3">
         <v>39.51700000000001</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="3">
         <v>14.676586206896548</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="3">
         <v>9.4721666666666628</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="3">
         <v>8.0347586206896562</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="3">
         <v>5.8133666666666661</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="3">
         <v>4.210700000000001</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="3">
         <v>5.4619354838709686</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="3">
         <v>7.3120000000000012</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="3">
         <v>29.324718750000002</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3">
         <v>53.415225806451602</v>
       </c>
-      <c r="B30" s="1">
+      <c r="C30" s="3">
         <v>54.419387096774194</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="3">
         <v>83.805322580645154</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="3">
         <v>27.691099999999999</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="3">
         <v>10.800586206896551</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
